--- a/db/описание состава лабораторных.xlsx
+++ b/db/описание состава лабораторных.xlsx
@@ -20,106 +20,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>id записи
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Уникальный
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+  <si>
+    <t>id записи
+Уникальный
 Порядковый номер</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Заголовок элемента
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>может быть пустым</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>id типа элемента</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 
+  </si>
+  <si>
+    <t>Заголовок элемента
+может быть пустым</t>
+  </si>
+  <si>
+    <t>id типа элемента 
 смотреть «типы элементов»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>id лабораторной 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>xxx — первые 2 цифры
+  </si>
+  <si>
+    <t>id лабораторной 
+xxx — первые 2 цифры
  номер с ведущим нолем,
  Третья — порядковый
  номер варианта,
  если нет, то 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>UID стенда
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Не заполняется</t>
-    </r>
+  </si>
+  <si>
+    <t>UID стенда
+Не заполняется</t>
   </si>
   <si>
     <t>Параметр 1</t>
@@ -139,13 +64,23 @@
 Отчете</t>
   </si>
   <si>
+    <t>Минимальное правильное значение</t>
+  </si>
+  <si>
+    <t>Максимальное правильное значение</t>
+  </si>
+  <si>
+    <t>Порядок
+Следования</t>
+  </si>
+  <si>
     <t>Текстовое поле</t>
   </si>
   <si>
-    <t>040</t>
-  </si>
-  <si>
-    <t>Текст  в поле или html элемент ссылки</t>
+    <t>Действенным способом подавления высших гармоник в электрических сетях является применение силовых резонансных фильтров. Однако, при значительных мощностях выпрямительных агрегатов такой путь крайне затратен. Иное, более практичное решение состоит в таком построении вентильного трансформатора, при котором, значительная несинусоидальность вторичных токов, не будет приводить к несинусоидальности – первичных. Возможность такого пути заложена в уравнении МДС трансформатора (8.1). Так, для трехобмоточного трансформатора</t>
+  </si>
+  <si>
+    <t>0.0000</t>
   </si>
   <si>
     <t>Картинка</t>
@@ -154,58 +89,49 @@
     <t>&lt;img src="/static/img/8.1.bmp" alt="8.1.bmp"&gt;</t>
   </si>
   <si>
-    <t>Таблица аналоговых параметров</t>
-  </si>
-  <si>
-    <t>040005</t>
-  </si>
-  <si>
-    <t>колонка1,колонка2,колонка3,колонка4,колонка5</t>
-  </si>
-  <si>
-    <t>gorizontal</t>
+    <t>Таблица считываемых параметров</t>
+  </si>
+  <si>
+    <t>Заголовок1,Заголовок2,Заголовок3;ПодписьСлева1,ПодписьСлева2,ПодписьСлева3,ПодписьСлева4,ПодписьСлева5,ПодписьСлева6,ПодписьСлева7,ПодписьСлева8,ПодписьСлева9,ПодписьСлева10,</t>
+  </si>
+  <si>
+    <t>10;3</t>
   </si>
   <si>
     <t>Считать значения</t>
   </si>
   <si>
-    <t>Таблица с ручным вводом</t>
-  </si>
-  <si>
-    <t>vertical</t>
-  </si>
-  <si>
     <t>Одиночный параметр</t>
   </si>
   <si>
-    <t>041</t>
-  </si>
-  <si>
-    <t>041005</t>
-  </si>
-  <si>
     <t>Логический управляющий/считываемый параметр</t>
   </si>
   <si>
-    <t>041007</t>
-  </si>
-  <si>
     <t>График</t>
   </si>
   <si>
-    <t>041001</t>
-  </si>
-  <si>
-    <t>Влт</t>
-  </si>
-  <si>
-    <t>grafic</t>
-  </si>
-  <si>
     <t>Многопозиционный дискретный параметр</t>
   </si>
   <si>
-    <t>041017</t>
+    <t>Таблица вводимых параметров</t>
+  </si>
+  <si>
+    <t>Записать значения</t>
+  </si>
+  <si>
+    <t>Таблица мульти-параметров</t>
+  </si>
+  <si>
+    <t>Заголовок1,Заголовок2,Заголовок3,заголовок4,Заголовок5,Заголовок6;ПодписьСлева1,ПодписьСлева2,ПодписьСлева3,ПодписьСлева4,ПодписьСлева5,ПодписьСлева6,ПодписьСлева7,ПодписьСлева8,ПодписьСлева9,ПодписьСлева10,</t>
+  </si>
+  <si>
+    <t>10;3;3</t>
+  </si>
+  <si>
+    <t>Считать занчения;Записать значения </t>
+  </si>
+  <si>
+    <t>АВР</t>
   </si>
 </sst>
 </file>
@@ -221,6 +147,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -242,6 +169,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -291,7 +219,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,8 +227,8 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -320,24 +248,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.780612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.8928571428572"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8316326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9387755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4744897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.9489795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.3826530612245"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="75.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -365,11 +296,20 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -377,23 +317,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3"/>
+      <c r="D2" s="0" t="n">
+        <v>1000</v>
+      </c>
       <c r="F2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,23 +349,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1000</v>
+      </c>
       <c r="F3" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,31 +381,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
+      <c r="D4" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,26 +422,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,22 +454,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,22 +486,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -530,57 +521,139 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>17</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
+      <c r="C11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
